--- a/csec/database/Spanish data.xlsx
+++ b/csec/database/Spanish data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -19,6 +19,87 @@
     <t>id</t>
   </si>
   <si>
+    <t>CSEC Spanish January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1PFYAO8VHM5kau4UJyteAlQP5zfZCQS_P</t>
+  </si>
+  <si>
+    <t>CSEC Spanish June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1TmIDeOsUWVVzTgThCBZhItd5EgRxc_w5</t>
+  </si>
+  <si>
+    <t>CSEC Spanish June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1LJTBdmnYXNqY0xcaE9G9nML-JC4SLtnd</t>
+  </si>
+  <si>
+    <t>CSEC Spanish June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1fVTzWgiv87JvaasUhc9wKXJmOmsHmQCU</t>
+  </si>
+  <si>
+    <t>CSEC Spanish June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1Lkn_n1nte7qEWNyvgvout3bhuDmLqGcp</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1ABOFY_YOjr4IGk2TRmudXUTi34XKL18e</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>19P7LHLbqnfnvGvK4omDg0vDl01WMDlQk</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>1KRIKu94OJ0cWjkSSZbUZb02AFo36UjSs</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1w2YszkYWc2IqbetP0lkzcSAwH0EGVlYh</t>
+  </si>
+  <si>
+    <t>1zrCYuRX7v1Eo6NruGM2kX7cM_fhScjl_</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1fNh9brZJWLI-pv4lnWDdX54mAwTc3Xc1</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2018 Orals Responses.pdf</t>
+  </si>
+  <si>
+    <t>1kxL5Hrhgq2GhuwFR5GHvqHIXMBJhviYD</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2018 Orals Reading.pdf</t>
+  </si>
+  <si>
+    <t>13fXQ_RTIOCU3PKujLa3heYNdv6YY6BcJ</t>
+  </si>
+  <si>
+    <t>CSEC Spanish January 2018 Orals Conversation.pdf</t>
+  </si>
+  <si>
+    <t>16wuHVoVtimcbc0B_vkvrqBmgUmfPfvpY</t>
+  </si>
+  <si>
     <t>CSEC Spanish June 2017 P1.pdf</t>
   </si>
   <si>
@@ -53,12 +134,6 @@
   </si>
   <si>
     <t>1AfATH6EB2r40SGYtxTL250BRcZeqpqic</t>
-  </si>
-  <si>
-    <t>Spanish Jan 2020 P2.pdf</t>
-  </si>
-  <si>
-    <t>1zrCYuRX7v1Eo6NruGM2kX7cM_fhScjl_</t>
   </si>
   <si>
     <t>CSEC Spanish June 2009 P3.pdf</t>
@@ -637,306 +712,410 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
